--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3527,28 +3527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2708.264082973472</v>
+        <v>2982.20702789796</v>
       </c>
       <c r="AB2" t="n">
-        <v>3705.56639850337</v>
+        <v>4080.387221258854</v>
       </c>
       <c r="AC2" t="n">
-        <v>3351.912342225173</v>
+        <v>3690.960791721187</v>
       </c>
       <c r="AD2" t="n">
-        <v>2708264.082973472</v>
+        <v>2982207.027897961</v>
       </c>
       <c r="AE2" t="n">
-        <v>3705566.39850337</v>
+        <v>4080387.221258854</v>
       </c>
       <c r="AF2" t="n">
         <v>2.890300536266046e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.30416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3351912.342225173</v>
+        <v>3690960.791721188</v>
       </c>
     </row>
     <row r="3">
@@ -3633,28 +3633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1005.647543769897</v>
+        <v>1152.373877598637</v>
       </c>
       <c r="AB3" t="n">
-        <v>1375.971335424407</v>
+        <v>1576.728778477888</v>
       </c>
       <c r="AC3" t="n">
-        <v>1244.650562359399</v>
+        <v>1426.247996812697</v>
       </c>
       <c r="AD3" t="n">
-        <v>1005647.543769897</v>
+        <v>1152373.877598637</v>
       </c>
       <c r="AE3" t="n">
-        <v>1375971.335424406</v>
+        <v>1576728.778477888</v>
       </c>
       <c r="AF3" t="n">
         <v>5.385082297205707e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.14583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1244650.562359399</v>
+        <v>1426247.996812697</v>
       </c>
     </row>
     <row r="4">
@@ -3739,28 +3739,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>784.2352734701216</v>
+        <v>911.4518845658692</v>
       </c>
       <c r="AB4" t="n">
-        <v>1073.025299180281</v>
+        <v>1247.088678882261</v>
       </c>
       <c r="AC4" t="n">
-        <v>970.6172706269801</v>
+        <v>1128.068285669691</v>
       </c>
       <c r="AD4" t="n">
-        <v>784235.2734701216</v>
+        <v>911451.8845658692</v>
       </c>
       <c r="AE4" t="n">
-        <v>1073025.299180281</v>
+        <v>1247088.678882261</v>
       </c>
       <c r="AF4" t="n">
         <v>6.300425748675341e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.9125</v>
       </c>
       <c r="AH4" t="n">
-        <v>970617.2706269801</v>
+        <v>1128068.285669691</v>
       </c>
     </row>
     <row r="5">
@@ -3845,28 +3845,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>706.8102198820122</v>
+        <v>824.1709898997073</v>
       </c>
       <c r="AB5" t="n">
-        <v>967.088925108737</v>
+        <v>1127.667108238704</v>
       </c>
       <c r="AC5" t="n">
-        <v>874.7913154141899</v>
+        <v>1020.044142119128</v>
       </c>
       <c r="AD5" t="n">
-        <v>706810.2198820122</v>
+        <v>824170.9898997073</v>
       </c>
       <c r="AE5" t="n">
-        <v>967088.9251087371</v>
+        <v>1127667.108238705</v>
       </c>
       <c r="AF5" t="n">
         <v>6.771658118135633e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.17916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>874791.3154141898</v>
+        <v>1020044.142119128</v>
       </c>
     </row>
     <row r="6">
@@ -3951,28 +3951,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>656.8730151361632</v>
+        <v>764.4794293022906</v>
       </c>
       <c r="AB6" t="n">
-        <v>898.7626385014784</v>
+        <v>1045.994481623522</v>
       </c>
       <c r="AC6" t="n">
-        <v>812.9859937041821</v>
+        <v>946.1662363598475</v>
       </c>
       <c r="AD6" t="n">
-        <v>656873.0151361632</v>
+        <v>764479.4293022905</v>
       </c>
       <c r="AE6" t="n">
-        <v>898762.6385014784</v>
+        <v>1045994.481623522</v>
       </c>
       <c r="AF6" t="n">
         <v>7.070745649191965e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.19583333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>812985.9937041821</v>
+        <v>946166.2363598475</v>
       </c>
     </row>
     <row r="7">
@@ -4057,28 +4057,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>619.846042137326</v>
+        <v>727.5197761111579</v>
       </c>
       <c r="AB7" t="n">
-        <v>848.1007005297083</v>
+        <v>995.4246535825935</v>
       </c>
       <c r="AC7" t="n">
-        <v>767.1591599879612</v>
+        <v>900.4227217319459</v>
       </c>
       <c r="AD7" t="n">
-        <v>619846.042137326</v>
+        <v>727519.7761111578</v>
       </c>
       <c r="AE7" t="n">
-        <v>848100.7005297083</v>
+        <v>995424.6535825934</v>
       </c>
       <c r="AF7" t="n">
         <v>7.277545466005474e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.56666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>767159.1599879612</v>
+        <v>900422.7217319459</v>
       </c>
     </row>
     <row r="8">
@@ -4163,28 +4163,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>598.3635397926388</v>
+        <v>705.9357885399854</v>
       </c>
       <c r="AB8" t="n">
-        <v>818.7073930805921</v>
+        <v>965.8924895693879</v>
       </c>
       <c r="AC8" t="n">
-        <v>740.5711085480226</v>
+        <v>873.709066003508</v>
       </c>
       <c r="AD8" t="n">
-        <v>598363.5397926387</v>
+        <v>705935.7885399854</v>
       </c>
       <c r="AE8" t="n">
-        <v>818707.393080592</v>
+        <v>965892.4895693879</v>
       </c>
       <c r="AF8" t="n">
         <v>7.424452439698132e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.14166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>740571.1085480226</v>
+        <v>873709.0660035081</v>
       </c>
     </row>
     <row r="9">
@@ -4269,28 +4269,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>568.9160243236947</v>
+        <v>676.5555928787459</v>
       </c>
       <c r="AB9" t="n">
-        <v>778.4160032832887</v>
+        <v>925.693209702926</v>
       </c>
       <c r="AC9" t="n">
-        <v>704.125072443653</v>
+        <v>837.3463489874575</v>
       </c>
       <c r="AD9" t="n">
-        <v>568916.0243236948</v>
+        <v>676555.5928787459</v>
       </c>
       <c r="AE9" t="n">
-        <v>778416.0032832887</v>
+        <v>925693.209702926</v>
       </c>
       <c r="AF9" t="n">
         <v>7.555538662377732e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.77083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>704125.072443653</v>
+        <v>837346.3489874576</v>
       </c>
     </row>
     <row r="10">
@@ -4375,28 +4375,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>554.1902124541955</v>
+        <v>661.8297810092466</v>
       </c>
       <c r="AB10" t="n">
-        <v>758.2674978264704</v>
+        <v>905.5447042461077</v>
       </c>
       <c r="AC10" t="n">
-        <v>685.8995120690286</v>
+        <v>819.1207886128333</v>
       </c>
       <c r="AD10" t="n">
-        <v>554190.2124541955</v>
+        <v>661829.7810092466</v>
       </c>
       <c r="AE10" t="n">
-        <v>758267.4978264704</v>
+        <v>905544.7042461077</v>
       </c>
       <c r="AF10" t="n">
         <v>7.632758994703361e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.5625</v>
       </c>
       <c r="AH10" t="n">
-        <v>685899.5120690286</v>
+        <v>819120.7886128332</v>
       </c>
     </row>
     <row r="11">
@@ -4481,28 +4481,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>550.285012366917</v>
+        <v>657.9245809219682</v>
       </c>
       <c r="AB11" t="n">
-        <v>752.9242307817875</v>
+        <v>900.2014372014249</v>
       </c>
       <c r="AC11" t="n">
-        <v>681.066198931768</v>
+        <v>814.2874754755725</v>
       </c>
       <c r="AD11" t="n">
-        <v>550285.0123669171</v>
+        <v>657924.5809219682</v>
       </c>
       <c r="AE11" t="n">
-        <v>752924.2307817875</v>
+        <v>900201.437201425</v>
       </c>
       <c r="AF11" t="n">
         <v>7.648579745716417e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.52083333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>681066.198931768</v>
+        <v>814287.4754755725</v>
       </c>
     </row>
     <row r="12">
@@ -4587,28 +4587,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>550.3539990315221</v>
+        <v>657.8920823600879</v>
       </c>
       <c r="AB12" t="n">
-        <v>753.018621379777</v>
+        <v>900.156971235325</v>
       </c>
       <c r="AC12" t="n">
-        <v>681.1515810235633</v>
+        <v>814.2472532788687</v>
       </c>
       <c r="AD12" t="n">
-        <v>550353.9990315221</v>
+        <v>657892.0823600879</v>
       </c>
       <c r="AE12" t="n">
-        <v>753018.621379777</v>
+        <v>900156.9712353251</v>
       </c>
       <c r="AF12" t="n">
         <v>7.663647127633612e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.47916666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>681151.5810235633</v>
+        <v>814247.2532788687</v>
       </c>
     </row>
   </sheetData>
@@ -4884,28 +4884,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1709.208804101861</v>
+        <v>1922.146719985459</v>
       </c>
       <c r="AB2" t="n">
-        <v>2338.614890742788</v>
+        <v>2629.965941412569</v>
       </c>
       <c r="AC2" t="n">
-        <v>2115.420767836909</v>
+        <v>2378.965683144534</v>
       </c>
       <c r="AD2" t="n">
-        <v>1709208.804101861</v>
+        <v>1922146.719985459</v>
       </c>
       <c r="AE2" t="n">
-        <v>2338614.890742788</v>
+        <v>2629965.941412569</v>
       </c>
       <c r="AF2" t="n">
         <v>4.01734537898089e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>2115420.767836909</v>
+        <v>2378965.683144534</v>
       </c>
     </row>
     <row r="3">
@@ -4990,28 +4990,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>811.7481476802227</v>
+        <v>947.2416703629556</v>
       </c>
       <c r="AB3" t="n">
-        <v>1110.669627456887</v>
+        <v>1296.057842743748</v>
       </c>
       <c r="AC3" t="n">
-        <v>1004.668877047014</v>
+        <v>1172.363901260891</v>
       </c>
       <c r="AD3" t="n">
-        <v>811748.1476802228</v>
+        <v>947241.6703629555</v>
       </c>
       <c r="AE3" t="n">
-        <v>1110669.627456887</v>
+        <v>1296057.842743748</v>
       </c>
       <c r="AF3" t="n">
         <v>6.440447203442637e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1004668.877047014</v>
+        <v>1172363.901260891</v>
       </c>
     </row>
     <row r="4">
@@ -5096,28 +5096,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>666.7319346717676</v>
+        <v>782.7970392465799</v>
       </c>
       <c r="AB4" t="n">
-        <v>912.2520471549253</v>
+        <v>1071.057443665215</v>
       </c>
       <c r="AC4" t="n">
-        <v>825.1879921282481</v>
+        <v>968.8372244803697</v>
       </c>
       <c r="AD4" t="n">
-        <v>666731.9346717676</v>
+        <v>782797.0392465799</v>
       </c>
       <c r="AE4" t="n">
-        <v>912252.0471549253</v>
+        <v>1071057.443665215</v>
       </c>
       <c r="AF4" t="n">
         <v>7.308460886435739e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>825187.9921282481</v>
+        <v>968837.2244803697</v>
       </c>
     </row>
     <row r="5">
@@ -5202,28 +5202,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>605.0082908364373</v>
+        <v>711.427011679922</v>
       </c>
       <c r="AB5" t="n">
-        <v>827.7990346044439</v>
+        <v>973.4058233251166</v>
       </c>
       <c r="AC5" t="n">
-        <v>748.7950565650372</v>
+        <v>880.5053377306203</v>
       </c>
       <c r="AD5" t="n">
-        <v>605008.2908364373</v>
+        <v>711427.011679922</v>
       </c>
       <c r="AE5" t="n">
-        <v>827799.0346044439</v>
+        <v>973405.8233251165</v>
       </c>
       <c r="AF5" t="n">
         <v>7.767197462490497e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.1125</v>
       </c>
       <c r="AH5" t="n">
-        <v>748795.0565650371</v>
+        <v>880505.3377306203</v>
       </c>
     </row>
     <row r="6">
@@ -5308,28 +5308,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>562.3758543996056</v>
+        <v>668.7604098243096</v>
       </c>
       <c r="AB6" t="n">
-        <v>769.4674542612163</v>
+        <v>915.0274963486411</v>
       </c>
       <c r="AC6" t="n">
-        <v>696.0305603808799</v>
+        <v>827.6985563462832</v>
       </c>
       <c r="AD6" t="n">
-        <v>562375.8543996057</v>
+        <v>668760.4098243096</v>
       </c>
       <c r="AE6" t="n">
-        <v>769467.4542612163</v>
+        <v>915027.4963486411</v>
       </c>
       <c r="AF6" t="n">
         <v>8.056947519064168e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.31666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>696030.5603808799</v>
+        <v>827698.5563462832</v>
       </c>
     </row>
     <row r="7">
@@ -5414,28 +5414,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>527.2444520006109</v>
+        <v>633.6963272330192</v>
       </c>
       <c r="AB7" t="n">
-        <v>721.3991196108235</v>
+        <v>867.0512716290899</v>
       </c>
       <c r="AC7" t="n">
-        <v>652.5498001251891</v>
+        <v>784.3011151789115</v>
       </c>
       <c r="AD7" t="n">
-        <v>527244.4520006109</v>
+        <v>633696.3272330193</v>
       </c>
       <c r="AE7" t="n">
-        <v>721399.1196108235</v>
+        <v>867051.27162909</v>
       </c>
       <c r="AF7" t="n">
         <v>8.246542150677095e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.825</v>
       </c>
       <c r="AH7" t="n">
-        <v>652549.8001251891</v>
+        <v>784301.1151789115</v>
       </c>
     </row>
     <row r="8">
@@ -5520,28 +5520,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>516.1052323896384</v>
+        <v>622.5571076220469</v>
       </c>
       <c r="AB8" t="n">
-        <v>706.1579479114049</v>
+        <v>851.8100999296713</v>
       </c>
       <c r="AC8" t="n">
-        <v>638.7632244616443</v>
+        <v>770.5145395153666</v>
       </c>
       <c r="AD8" t="n">
-        <v>516105.2323896384</v>
+        <v>622557.107622047</v>
       </c>
       <c r="AE8" t="n">
-        <v>706157.9479114049</v>
+        <v>851810.0999296713</v>
       </c>
       <c r="AF8" t="n">
         <v>8.331447572660275e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.6125</v>
       </c>
       <c r="AH8" t="n">
-        <v>638763.2244616443</v>
+        <v>770514.5395153665</v>
       </c>
     </row>
     <row r="9">
@@ -5626,28 +5626,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>517.2261938822433</v>
+        <v>623.6780691146517</v>
       </c>
       <c r="AB9" t="n">
-        <v>707.6916968789176</v>
+        <v>853.3438488971841</v>
       </c>
       <c r="AC9" t="n">
-        <v>640.1505945803278</v>
+        <v>771.9019096340501</v>
       </c>
       <c r="AD9" t="n">
-        <v>517226.1938822432</v>
+        <v>623678.0691146518</v>
       </c>
       <c r="AE9" t="n">
-        <v>707691.6968789176</v>
+        <v>853343.8488971841</v>
       </c>
       <c r="AF9" t="n">
         <v>8.329386761447092e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.61666666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>640150.5945803279</v>
+        <v>771901.9096340501</v>
       </c>
     </row>
   </sheetData>
@@ -5923,28 +5923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>655.6624326853789</v>
+        <v>786.5376918150649</v>
       </c>
       <c r="AB2" t="n">
-        <v>897.1062661851868</v>
+        <v>1076.175569535361</v>
       </c>
       <c r="AC2" t="n">
-        <v>811.4877032370243</v>
+        <v>973.4668836008036</v>
       </c>
       <c r="AD2" t="n">
-        <v>655662.4326853789</v>
+        <v>786537.691815065</v>
       </c>
       <c r="AE2" t="n">
-        <v>897106.2661851868</v>
+        <v>1076175.569535361</v>
       </c>
       <c r="AF2" t="n">
         <v>8.829537627534612e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.15</v>
       </c>
       <c r="AH2" t="n">
-        <v>811487.7032370244</v>
+        <v>973466.8836008036</v>
       </c>
     </row>
     <row r="3">
@@ -6029,28 +6029,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>452.5510065791968</v>
+        <v>564.7484566183534</v>
       </c>
       <c r="AB3" t="n">
-        <v>619.2002523429993</v>
+        <v>772.7137532887295</v>
       </c>
       <c r="AC3" t="n">
-        <v>560.1046493123952</v>
+        <v>698.9670371854165</v>
       </c>
       <c r="AD3" t="n">
-        <v>452551.0065791968</v>
+        <v>564748.4566183534</v>
       </c>
       <c r="AE3" t="n">
-        <v>619200.2523429993</v>
+        <v>772713.7532887296</v>
       </c>
       <c r="AF3" t="n">
         <v>1.092589123157006e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.9375</v>
       </c>
       <c r="AH3" t="n">
-        <v>560104.6493123951</v>
+        <v>698967.0371854166</v>
       </c>
     </row>
     <row r="4">
@@ -6135,28 +6135,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>446.7119884739952</v>
+        <v>549.622287610987</v>
       </c>
       <c r="AB4" t="n">
-        <v>611.2110501721641</v>
+        <v>752.0174615333711</v>
       </c>
       <c r="AC4" t="n">
-        <v>552.8779253838288</v>
+        <v>680.2459704677618</v>
       </c>
       <c r="AD4" t="n">
-        <v>446711.9884739952</v>
+        <v>549622.287610987</v>
       </c>
       <c r="AE4" t="n">
-        <v>611211.0501721641</v>
+        <v>752017.4615333711</v>
       </c>
       <c r="AF4" t="n">
         <v>1.104440079315933e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.70416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>552877.9253838288</v>
+        <v>680245.9704677619</v>
       </c>
     </row>
   </sheetData>
@@ -6432,28 +6432,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>917.3998870144897</v>
+        <v>1069.121009070152</v>
       </c>
       <c r="AB2" t="n">
-        <v>1255.226998239812</v>
+        <v>1462.818530899872</v>
       </c>
       <c r="AC2" t="n">
-        <v>1135.42989524996</v>
+        <v>1323.209183389491</v>
       </c>
       <c r="AD2" t="n">
-        <v>917399.8870144896</v>
+        <v>1069121.009070152</v>
       </c>
       <c r="AE2" t="n">
-        <v>1255226.998239812</v>
+        <v>1462818.530899873</v>
       </c>
       <c r="AF2" t="n">
         <v>6.584210480146961e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.52916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1135429.89524996</v>
+        <v>1323209.183389491</v>
       </c>
     </row>
     <row r="3">
@@ -6538,28 +6538,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>571.2502531372552</v>
+        <v>684.9396094525167</v>
       </c>
       <c r="AB3" t="n">
-        <v>781.6097981249093</v>
+        <v>937.1645910558659</v>
       </c>
       <c r="AC3" t="n">
-        <v>707.0140559881088</v>
+        <v>847.7229178042578</v>
       </c>
       <c r="AD3" t="n">
-        <v>571250.2531372552</v>
+        <v>684939.6094525168</v>
       </c>
       <c r="AE3" t="n">
-        <v>781609.7981249093</v>
+        <v>937164.5910558659</v>
       </c>
       <c r="AF3" t="n">
         <v>8.875432029647253e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.3875</v>
       </c>
       <c r="AH3" t="n">
-        <v>707014.0559881087</v>
+        <v>847722.9178042578</v>
       </c>
     </row>
     <row r="4">
@@ -6644,28 +6644,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>487.4503786012567</v>
+        <v>591.6571647880392</v>
       </c>
       <c r="AB4" t="n">
-        <v>666.951112795212</v>
+        <v>809.5314349349148</v>
       </c>
       <c r="AC4" t="n">
-        <v>603.2982346618022</v>
+        <v>732.2708909692305</v>
       </c>
       <c r="AD4" t="n">
-        <v>487450.3786012566</v>
+        <v>591657.1647880392</v>
       </c>
       <c r="AE4" t="n">
-        <v>666951.112795212</v>
+        <v>809531.4349349148</v>
       </c>
       <c r="AF4" t="n">
         <v>9.676039342116696e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.45416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>603298.2346618022</v>
+        <v>732270.8909692306</v>
       </c>
     </row>
     <row r="5">
@@ -6750,28 +6750,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>473.5823319398087</v>
+        <v>568.3748788356739</v>
       </c>
       <c r="AB5" t="n">
-        <v>647.97623953798</v>
+        <v>777.6755841529243</v>
       </c>
       <c r="AC5" t="n">
-        <v>586.1342966768384</v>
+        <v>703.4553178759058</v>
       </c>
       <c r="AD5" t="n">
-        <v>473582.3319398087</v>
+        <v>568374.8788356739</v>
       </c>
       <c r="AE5" t="n">
-        <v>647976.2395379799</v>
+        <v>777675.5841529244</v>
       </c>
       <c r="AF5" t="n">
         <v>9.850409323052792e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.075</v>
       </c>
       <c r="AH5" t="n">
-        <v>586134.2966768384</v>
+        <v>703455.3178759059</v>
       </c>
     </row>
     <row r="6">
@@ -6856,28 +6856,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>475.1985154672809</v>
+        <v>569.9910623631461</v>
       </c>
       <c r="AB6" t="n">
-        <v>650.1875731412524</v>
+        <v>779.8869177561969</v>
       </c>
       <c r="AC6" t="n">
-        <v>588.1345837046408</v>
+        <v>705.4556049037084</v>
       </c>
       <c r="AD6" t="n">
-        <v>475198.5154672809</v>
+        <v>569991.0623631461</v>
       </c>
       <c r="AE6" t="n">
-        <v>650187.5731412524</v>
+        <v>779886.9177561969</v>
       </c>
       <c r="AF6" t="n">
         <v>9.850409323052792e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.075</v>
       </c>
       <c r="AH6" t="n">
-        <v>588134.5837046409</v>
+        <v>705455.6049037083</v>
       </c>
     </row>
   </sheetData>
@@ -7153,28 +7153,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>500.3219525069386</v>
+        <v>620.4524633469758</v>
       </c>
       <c r="AB2" t="n">
-        <v>684.5625680667296</v>
+        <v>848.9304327821668</v>
       </c>
       <c r="AC2" t="n">
-        <v>619.228877360039</v>
+        <v>767.9097037587817</v>
       </c>
       <c r="AD2" t="n">
-        <v>500321.9525069386</v>
+        <v>620452.4633469759</v>
       </c>
       <c r="AE2" t="n">
-        <v>684562.5680667296</v>
+        <v>848930.4327821668</v>
       </c>
       <c r="AF2" t="n">
         <v>1.121671396892704e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.475</v>
       </c>
       <c r="AH2" t="n">
-        <v>619228.8773600389</v>
+        <v>767909.7037587817</v>
       </c>
     </row>
     <row r="3">
@@ -7259,28 +7259,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>436.8553305153263</v>
+        <v>547.8360833906715</v>
       </c>
       <c r="AB3" t="n">
-        <v>597.7247359080541</v>
+        <v>749.5734981173671</v>
       </c>
       <c r="AC3" t="n">
-        <v>540.6787260249243</v>
+        <v>678.0352554900567</v>
       </c>
       <c r="AD3" t="n">
-        <v>436855.3305153263</v>
+        <v>547836.0833906715</v>
       </c>
       <c r="AE3" t="n">
-        <v>597724.735908054</v>
+        <v>749573.498117367</v>
       </c>
       <c r="AF3" t="n">
         <v>1.215764491809157e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.58333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>540678.7260249243</v>
+        <v>678035.2554900567</v>
       </c>
     </row>
   </sheetData>
@@ -7556,28 +7556,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1914.171907873677</v>
+        <v>2137.375782720207</v>
       </c>
       <c r="AB2" t="n">
-        <v>2619.054451657347</v>
+        <v>2924.451840282358</v>
       </c>
       <c r="AC2" t="n">
-        <v>2369.095570657179</v>
+        <v>2645.346261139746</v>
       </c>
       <c r="AD2" t="n">
-        <v>1914171.907873677</v>
+        <v>2137375.782720207</v>
       </c>
       <c r="AE2" t="n">
-        <v>2619054.451657347</v>
+        <v>2924451.840282358</v>
       </c>
       <c r="AF2" t="n">
         <v>3.703105592342887e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.25833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2369095.570657179</v>
+        <v>2645346.261139746</v>
       </c>
     </row>
     <row r="3">
@@ -7662,28 +7662,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>860.2892311950177</v>
+        <v>996.1127477521072</v>
       </c>
       <c r="AB3" t="n">
-        <v>1177.085679403296</v>
+        <v>1362.925406867354</v>
       </c>
       <c r="AC3" t="n">
-        <v>1064.746274211171</v>
+        <v>1232.849718913756</v>
       </c>
       <c r="AD3" t="n">
-        <v>860289.2311950177</v>
+        <v>996112.7477521072</v>
       </c>
       <c r="AE3" t="n">
-        <v>1177085.679403296</v>
+        <v>1362925.406867354</v>
       </c>
       <c r="AF3" t="n">
         <v>6.148514737715402e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.25833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1064746.274211171</v>
+        <v>1232849.718913756</v>
       </c>
     </row>
     <row r="4">
@@ -7768,28 +7768,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>693.4288901142481</v>
+        <v>819.5766323614346</v>
       </c>
       <c r="AB4" t="n">
-        <v>948.7799993778773</v>
+        <v>1121.38090556609</v>
       </c>
       <c r="AC4" t="n">
-        <v>858.2297678583446</v>
+        <v>1014.357885806848</v>
       </c>
       <c r="AD4" t="n">
-        <v>693428.8901142481</v>
+        <v>819576.6323614346</v>
       </c>
       <c r="AE4" t="n">
-        <v>948779.9993778773</v>
+        <v>1121380.90556609</v>
       </c>
       <c r="AF4" t="n">
         <v>7.025724827527484e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.85416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>858229.7678583446</v>
+        <v>1014357.885806848</v>
       </c>
     </row>
     <row r="5">
@@ -7874,28 +7874,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>627.1158652968635</v>
+        <v>733.8467611762536</v>
       </c>
       <c r="AB5" t="n">
-        <v>858.0475932985497</v>
+        <v>1004.081513675539</v>
       </c>
       <c r="AC5" t="n">
-        <v>776.1567352714964</v>
+        <v>908.2533832475997</v>
       </c>
       <c r="AD5" t="n">
-        <v>627115.8652968635</v>
+        <v>733846.7611762536</v>
       </c>
       <c r="AE5" t="n">
-        <v>858047.5932985498</v>
+        <v>1004081.513675539</v>
       </c>
       <c r="AF5" t="n">
         <v>7.499120643991867e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.34583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>776156.7352714963</v>
+        <v>908253.3832475997</v>
       </c>
     </row>
     <row r="6">
@@ -7980,28 +7980,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>582.9118930872604</v>
+        <v>689.7101087743548</v>
       </c>
       <c r="AB6" t="n">
-        <v>797.5657683797511</v>
+        <v>943.6917986875812</v>
       </c>
       <c r="AC6" t="n">
-        <v>721.4472108361734</v>
+        <v>853.6271779005958</v>
       </c>
       <c r="AD6" t="n">
-        <v>582911.8930872604</v>
+        <v>689710.1087743548</v>
       </c>
       <c r="AE6" t="n">
-        <v>797565.7683797511</v>
+        <v>943691.7986875812</v>
       </c>
       <c r="AF6" t="n">
         <v>7.788306363650229e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.51666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>721447.2108361734</v>
+        <v>853627.1779005958</v>
       </c>
     </row>
     <row r="7">
@@ -8086,28 +8086,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>547.3157137058815</v>
+        <v>654.0797639741952</v>
       </c>
       <c r="AB7" t="n">
-        <v>748.861505357547</v>
+        <v>894.9407890321296</v>
       </c>
       <c r="AC7" t="n">
-        <v>677.3912143199459</v>
+        <v>809.5288961841885</v>
       </c>
       <c r="AD7" t="n">
-        <v>547315.7137058815</v>
+        <v>654079.7639741952</v>
       </c>
       <c r="AE7" t="n">
-        <v>748861.505357547</v>
+        <v>894940.7890321296</v>
       </c>
       <c r="AF7" t="n">
         <v>7.989811294872536e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.975</v>
       </c>
       <c r="AH7" t="n">
-        <v>677391.2143199459</v>
+        <v>809528.8961841885</v>
       </c>
     </row>
     <row r="8">
@@ -8192,28 +8192,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>529.6835447800742</v>
+        <v>636.4475950483879</v>
       </c>
       <c r="AB8" t="n">
-        <v>724.7363939568643</v>
+        <v>870.8156776314468</v>
       </c>
       <c r="AC8" t="n">
-        <v>655.5685696915377</v>
+        <v>787.7062515557805</v>
       </c>
       <c r="AD8" t="n">
-        <v>529683.5447800742</v>
+        <v>636447.5950483879</v>
       </c>
       <c r="AE8" t="n">
-        <v>724736.3939568643</v>
+        <v>870815.6776314467</v>
       </c>
       <c r="AF8" t="n">
         <v>8.11127734123808e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.6625</v>
       </c>
       <c r="AH8" t="n">
-        <v>655568.5696915378</v>
+        <v>787706.2515557804</v>
       </c>
     </row>
     <row r="9">
@@ -8298,28 +8298,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>525.0221131369686</v>
+        <v>631.7861634052823</v>
       </c>
       <c r="AB9" t="n">
-        <v>718.3584175349168</v>
+        <v>864.4377012094994</v>
       </c>
       <c r="AC9" t="n">
-        <v>649.799298387755</v>
+        <v>781.9369802519976</v>
       </c>
       <c r="AD9" t="n">
-        <v>525022.1131369687</v>
+        <v>631786.1634052823</v>
       </c>
       <c r="AE9" t="n">
-        <v>718358.4175349169</v>
+        <v>864437.7012094994</v>
       </c>
       <c r="AF9" t="n">
         <v>8.147073626425276e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.57083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>649799.2983877551</v>
+        <v>781936.9802519976</v>
       </c>
     </row>
     <row r="10">
@@ -8404,28 +8404,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>526.2443272011234</v>
+        <v>633.0083774694371</v>
       </c>
       <c r="AB10" t="n">
-        <v>720.0307047377725</v>
+        <v>866.1099884123549</v>
       </c>
       <c r="AC10" t="n">
-        <v>651.3119848470398</v>
+        <v>783.4496667112825</v>
       </c>
       <c r="AD10" t="n">
-        <v>526244.3272011233</v>
+        <v>633008.3774694371</v>
       </c>
       <c r="AE10" t="n">
-        <v>720030.7047377725</v>
+        <v>866109.988412355</v>
       </c>
       <c r="AF10" t="n">
         <v>8.147475831876818e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.56666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>651311.9848470398</v>
+        <v>783449.6667112825</v>
       </c>
     </row>
   </sheetData>
@@ -8701,28 +8701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>439.8054628625682</v>
+        <v>550.0796832201102</v>
       </c>
       <c r="AB2" t="n">
-        <v>601.7612371362038</v>
+        <v>752.6432903846436</v>
       </c>
       <c r="AC2" t="n">
-        <v>544.3299892411246</v>
+        <v>680.812071091825</v>
       </c>
       <c r="AD2" t="n">
-        <v>439805.4628625682</v>
+        <v>550079.6832201101</v>
       </c>
       <c r="AE2" t="n">
-        <v>601761.2371362038</v>
+        <v>752643.2903846436</v>
       </c>
       <c r="AF2" t="n">
         <v>1.272664306952969e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.60416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>544329.9892411246</v>
+        <v>680812.071091825</v>
       </c>
     </row>
     <row r="3">
@@ -8807,28 +8807,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>437.0932236491577</v>
+        <v>547.2659587802144</v>
       </c>
       <c r="AB3" t="n">
-        <v>598.0502317888664</v>
+        <v>748.793428473217</v>
       </c>
       <c r="AC3" t="n">
-        <v>540.9731570357085</v>
+        <v>677.3296345979096</v>
       </c>
       <c r="AD3" t="n">
-        <v>437093.2236491577</v>
+        <v>547265.9587802144</v>
       </c>
       <c r="AE3" t="n">
-        <v>598050.2317888665</v>
+        <v>748793.4284732169</v>
       </c>
       <c r="AF3" t="n">
         <v>1.285137166974659e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.375</v>
       </c>
       <c r="AH3" t="n">
-        <v>540973.1570357084</v>
+        <v>677329.6345979096</v>
       </c>
     </row>
   </sheetData>
@@ -9104,28 +9104,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1251.313924027364</v>
+        <v>1433.460190496852</v>
       </c>
       <c r="AB2" t="n">
-        <v>1712.10291492846</v>
+        <v>1961.323472438156</v>
       </c>
       <c r="AC2" t="n">
-        <v>1548.70221567922</v>
+        <v>1774.13751296344</v>
       </c>
       <c r="AD2" t="n">
-        <v>1251313.924027364</v>
+        <v>1433460.190496852</v>
       </c>
       <c r="AE2" t="n">
-        <v>1712102.91492846</v>
+        <v>1961323.472438156</v>
       </c>
       <c r="AF2" t="n">
         <v>5.11137638320318e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.53333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1548702.21567922</v>
+        <v>1774137.512963441</v>
       </c>
     </row>
     <row r="3">
@@ -9210,19 +9210,19 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>684.0563531470557</v>
+        <v>808.6719569149847</v>
       </c>
       <c r="AB3" t="n">
-        <v>935.956080812216</v>
+        <v>1106.46064753993</v>
       </c>
       <c r="AC3" t="n">
-        <v>846.6297460821073</v>
+        <v>1000.86159626599</v>
       </c>
       <c r="AD3" t="n">
-        <v>684056.3531470557</v>
+        <v>808671.9569149846</v>
       </c>
       <c r="AE3" t="n">
-        <v>935956.080812216</v>
+        <v>1106460.64753993</v>
       </c>
       <c r="AF3" t="n">
         <v>7.469645785080876e-06</v>
@@ -9231,7 +9231,7 @@
         <v>25</v>
       </c>
       <c r="AH3" t="n">
-        <v>846629.7460821073</v>
+        <v>1000861.59626599</v>
       </c>
     </row>
     <row r="4">
@@ -9316,28 +9316,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>577.5900870594419</v>
+        <v>692.5157618172924</v>
       </c>
       <c r="AB4" t="n">
-        <v>790.2842385909779</v>
+        <v>947.530616957605</v>
       </c>
       <c r="AC4" t="n">
-        <v>714.8606200307494</v>
+        <v>857.0996247427438</v>
       </c>
       <c r="AD4" t="n">
-        <v>577590.0870594418</v>
+        <v>692515.7618172924</v>
       </c>
       <c r="AE4" t="n">
-        <v>790284.2385909779</v>
+        <v>947530.616957605</v>
       </c>
       <c r="AF4" t="n">
         <v>8.312653148237841e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.4625</v>
       </c>
       <c r="AH4" t="n">
-        <v>714860.6200307494</v>
+        <v>857099.6247427438</v>
       </c>
     </row>
     <row r="5">
@@ -9422,28 +9422,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>525.4599978068261</v>
+        <v>630.8313941998646</v>
       </c>
       <c r="AB5" t="n">
-        <v>718.9575506583244</v>
+        <v>863.1313438612024</v>
       </c>
       <c r="AC5" t="n">
-        <v>650.3412510867531</v>
+        <v>780.7552998155379</v>
       </c>
       <c r="AD5" t="n">
-        <v>525459.9978068261</v>
+        <v>630831.3941998646</v>
       </c>
       <c r="AE5" t="n">
-        <v>718957.5506583244</v>
+        <v>863131.3438612024</v>
       </c>
       <c r="AF5" t="n">
         <v>8.753652215407672e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.33333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>650341.2510867531</v>
+        <v>780755.2998155379</v>
       </c>
     </row>
     <row r="6">
@@ -9528,28 +9528,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>491.6818726170619</v>
+        <v>597.1205888178046</v>
       </c>
       <c r="AB6" t="n">
-        <v>672.7408295879774</v>
+        <v>817.0067327216968</v>
       </c>
       <c r="AC6" t="n">
-        <v>608.5353890097845</v>
+        <v>739.0327568268885</v>
       </c>
       <c r="AD6" t="n">
-        <v>491681.8726170618</v>
+        <v>597120.5888178046</v>
       </c>
       <c r="AE6" t="n">
-        <v>672740.8295879774</v>
+        <v>817006.7327216968</v>
       </c>
       <c r="AF6" t="n">
         <v>8.970118220939205e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.81666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>608535.3890097844</v>
+        <v>739032.7568268885</v>
       </c>
     </row>
     <row r="7">
@@ -9634,28 +9634,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>491.1729313533996</v>
+        <v>596.6116475541425</v>
       </c>
       <c r="AB7" t="n">
-        <v>672.0444736981308</v>
+        <v>816.3103768318504</v>
       </c>
       <c r="AC7" t="n">
-        <v>607.9054923487233</v>
+        <v>738.4028601658274</v>
       </c>
       <c r="AD7" t="n">
-        <v>491172.9313533996</v>
+        <v>596611.6475541424</v>
       </c>
       <c r="AE7" t="n">
-        <v>672044.4736981308</v>
+        <v>816310.3768318504</v>
       </c>
       <c r="AF7" t="n">
         <v>8.989389521638699e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.775</v>
       </c>
       <c r="AH7" t="n">
-        <v>607905.4923487233</v>
+        <v>738402.8601658274</v>
       </c>
     </row>
   </sheetData>
@@ -9931,28 +9931,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1538.346383494682</v>
+        <v>1740.883631951445</v>
       </c>
       <c r="AB2" t="n">
-        <v>2104.833388950048</v>
+        <v>2381.95378760137</v>
       </c>
       <c r="AC2" t="n">
-        <v>1903.95104446087</v>
+        <v>2154.623461205832</v>
       </c>
       <c r="AD2" t="n">
-        <v>1538346.383494682</v>
+        <v>1740883.631951445</v>
       </c>
       <c r="AE2" t="n">
-        <v>2104833.388950048</v>
+        <v>2381953.78760137</v>
       </c>
       <c r="AF2" t="n">
         <v>4.354277142065349e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.48333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1903951.04446087</v>
+        <v>2154623.461205832</v>
       </c>
     </row>
     <row r="3">
@@ -10037,28 +10037,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>775.4249374972511</v>
+        <v>900.8217933241359</v>
       </c>
       <c r="AB3" t="n">
-        <v>1060.970608817608</v>
+        <v>1232.544119078794</v>
       </c>
       <c r="AC3" t="n">
-        <v>959.7130629936569</v>
+        <v>1114.911838240449</v>
       </c>
       <c r="AD3" t="n">
-        <v>775424.9374972511</v>
+        <v>900821.7933241359</v>
       </c>
       <c r="AE3" t="n">
-        <v>1060970.608817608</v>
+        <v>1232544.119078794</v>
       </c>
       <c r="AF3" t="n">
         <v>6.751604312383461e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.10833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>959713.0629936568</v>
+        <v>1114911.838240449</v>
       </c>
     </row>
     <row r="4">
@@ -10143,28 +10143,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>640.2665082262722</v>
+        <v>755.9781082009465</v>
       </c>
       <c r="AB4" t="n">
-        <v>876.0408831199868</v>
+        <v>1034.362599040846</v>
       </c>
       <c r="AC4" t="n">
-        <v>792.4327707661162</v>
+        <v>935.6444843254121</v>
       </c>
       <c r="AD4" t="n">
-        <v>640266.5082262722</v>
+        <v>755978.1082009465</v>
       </c>
       <c r="AE4" t="n">
-        <v>876040.8831199869</v>
+        <v>1034362.599040846</v>
       </c>
       <c r="AF4" t="n">
         <v>7.613322231200823e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.15</v>
       </c>
       <c r="AH4" t="n">
-        <v>792432.7707661162</v>
+        <v>935644.4843254121</v>
       </c>
     </row>
     <row r="5">
@@ -10249,28 +10249,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>572.3762396042256</v>
+        <v>688.1209939678232</v>
       </c>
       <c r="AB5" t="n">
-        <v>783.1504224840352</v>
+        <v>941.5175017024875</v>
       </c>
       <c r="AC5" t="n">
-        <v>708.4076453206793</v>
+        <v>851.6603927681143</v>
       </c>
       <c r="AD5" t="n">
-        <v>572376.2396042256</v>
+        <v>688120.9939678232</v>
       </c>
       <c r="AE5" t="n">
-        <v>783150.4224840351</v>
+        <v>941517.5017024875</v>
       </c>
       <c r="AF5" t="n">
         <v>8.06469828391468e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.85833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>708407.6453206793</v>
+        <v>851660.3927681143</v>
       </c>
     </row>
     <row r="6">
@@ -10355,28 +10355,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>540.2537617976202</v>
+        <v>646.3142713388645</v>
       </c>
       <c r="AB6" t="n">
-        <v>739.1990312053339</v>
+        <v>884.3156994191136</v>
       </c>
       <c r="AC6" t="n">
-        <v>668.6509131394523</v>
+        <v>799.917850211432</v>
       </c>
       <c r="AD6" t="n">
-        <v>540253.7617976202</v>
+        <v>646314.2713388645</v>
       </c>
       <c r="AE6" t="n">
-        <v>739199.0312053339</v>
+        <v>884315.6994191136</v>
       </c>
       <c r="AF6" t="n">
         <v>8.346015130263991e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.12083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>668650.9131394523</v>
+        <v>799917.850211432</v>
       </c>
     </row>
     <row r="7">
@@ -10461,28 +10461,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>510.0084461670159</v>
+        <v>616.1362755159645</v>
       </c>
       <c r="AB7" t="n">
-        <v>697.8160560303876</v>
+        <v>843.0248341750088</v>
       </c>
       <c r="AC7" t="n">
-        <v>631.2174710338326</v>
+        <v>762.5677271941311</v>
       </c>
       <c r="AD7" t="n">
-        <v>510008.4461670159</v>
+        <v>616136.2755159645</v>
       </c>
       <c r="AE7" t="n">
-        <v>697816.0560303876</v>
+        <v>843024.8341750088</v>
       </c>
       <c r="AF7" t="n">
         <v>8.509305811002085e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.7125</v>
       </c>
       <c r="AH7" t="n">
-        <v>631217.4710338325</v>
+        <v>762567.7271941311</v>
       </c>
     </row>
     <row r="8">
@@ -10567,28 +10567,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>508.5821182450172</v>
+        <v>614.7099475939658</v>
       </c>
       <c r="AB8" t="n">
-        <v>695.8644912423622</v>
+        <v>841.0732693869835</v>
       </c>
       <c r="AC8" t="n">
-        <v>629.4521608501378</v>
+        <v>760.8024170104366</v>
       </c>
       <c r="AD8" t="n">
-        <v>508582.1182450172</v>
+        <v>614709.9475939658</v>
       </c>
       <c r="AE8" t="n">
-        <v>695864.4912423622</v>
+        <v>841073.2693869835</v>
       </c>
       <c r="AF8" t="n">
         <v>8.526650157919863e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.67083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>629452.1608501378</v>
+        <v>760802.4170104365</v>
       </c>
     </row>
     <row r="9">
@@ -10673,28 +10673,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>509.994716340985</v>
+        <v>616.1225456899336</v>
       </c>
       <c r="AB9" t="n">
-        <v>697.797270276695</v>
+        <v>843.0060484213163</v>
       </c>
       <c r="AC9" t="n">
-        <v>631.2004781661063</v>
+        <v>762.5507343264049</v>
       </c>
       <c r="AD9" t="n">
-        <v>509994.716340985</v>
+        <v>616122.5456899337</v>
       </c>
       <c r="AE9" t="n">
-        <v>697797.270276695</v>
+        <v>843006.0484213163</v>
       </c>
       <c r="AF9" t="n">
         <v>8.526650157919863e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.67083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>631200.4781661064</v>
+        <v>762550.734326405</v>
       </c>
     </row>
   </sheetData>
@@ -10970,28 +10970,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2388.783292627827</v>
+        <v>2652.277340744306</v>
       </c>
       <c r="AB2" t="n">
-        <v>3268.438686654702</v>
+        <v>3628.962867824675</v>
       </c>
       <c r="AC2" t="n">
-        <v>2956.503485682761</v>
+        <v>3282.619745000725</v>
       </c>
       <c r="AD2" t="n">
-        <v>2388783.292627826</v>
+        <v>2652277.340744306</v>
       </c>
       <c r="AE2" t="n">
-        <v>3268438.686654702</v>
+        <v>3628962.867824675</v>
       </c>
       <c r="AF2" t="n">
         <v>3.149156627559282e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.87916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2956503.485682761</v>
+        <v>3282619.745000725</v>
       </c>
     </row>
     <row r="3">
@@ -11076,28 +11076,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>951.635879518366</v>
+        <v>1097.942753524668</v>
       </c>
       <c r="AB3" t="n">
-        <v>1302.070193569007</v>
+        <v>1502.253713188167</v>
       </c>
       <c r="AC3" t="n">
-        <v>1177.802441761774</v>
+        <v>1358.880727227816</v>
       </c>
       <c r="AD3" t="n">
-        <v>951635.879518366</v>
+        <v>1097942.753524668</v>
       </c>
       <c r="AE3" t="n">
-        <v>1302070.193569007</v>
+        <v>1502253.713188167</v>
       </c>
       <c r="AF3" t="n">
         <v>5.624565250296989e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.4875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1177802.441761774</v>
+        <v>1358880.727227816</v>
       </c>
     </row>
     <row r="4">
@@ -11182,28 +11182,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>757.9164540849941</v>
+        <v>884.7991433642388</v>
       </c>
       <c r="AB4" t="n">
-        <v>1037.014729393185</v>
+        <v>1210.621222534235</v>
       </c>
       <c r="AC4" t="n">
-        <v>938.0434990792123</v>
+        <v>1095.081232173124</v>
       </c>
       <c r="AD4" t="n">
-        <v>757916.4540849942</v>
+        <v>884799.1433642388</v>
       </c>
       <c r="AE4" t="n">
-        <v>1037014.729393185</v>
+        <v>1210621.222534235</v>
       </c>
       <c r="AF4" t="n">
         <v>6.518281211030629e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.58333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>938043.4990792123</v>
+        <v>1095081.232173124</v>
       </c>
     </row>
     <row r="5">
@@ -11288,28 +11288,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>673.2864928066956</v>
+        <v>790.4063471091692</v>
       </c>
       <c r="AB5" t="n">
-        <v>921.2202827618305</v>
+        <v>1081.468834381781</v>
       </c>
       <c r="AC5" t="n">
-        <v>833.300311915828</v>
+        <v>978.2549666794248</v>
       </c>
       <c r="AD5" t="n">
-        <v>673286.4928066956</v>
+        <v>790406.3471091692</v>
       </c>
       <c r="AE5" t="n">
-        <v>921220.2827618305</v>
+        <v>1081468.834381781</v>
       </c>
       <c r="AF5" t="n">
         <v>6.998211296656956e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.89583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>833300.311915828</v>
+        <v>978254.9666794247</v>
       </c>
     </row>
     <row r="6">
@@ -11394,28 +11394,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>626.8427892458685</v>
+        <v>743.9284781295613</v>
       </c>
       <c r="AB6" t="n">
-        <v>857.6739585983134</v>
+        <v>1017.875763585016</v>
       </c>
       <c r="AC6" t="n">
-        <v>775.818759742651</v>
+        <v>920.7311293060677</v>
       </c>
       <c r="AD6" t="n">
-        <v>626842.7892458686</v>
+        <v>743928.4781295613</v>
       </c>
       <c r="AE6" t="n">
-        <v>857673.9585983135</v>
+        <v>1017875.763585016</v>
       </c>
       <c r="AF6" t="n">
         <v>7.288553616086343e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.98333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>775818.759742651</v>
+        <v>920731.1293060677</v>
       </c>
     </row>
     <row r="7">
@@ -11500,28 +11500,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>599.7713458445296</v>
+        <v>707.0610453625274</v>
       </c>
       <c r="AB7" t="n">
-        <v>820.6336154288084</v>
+        <v>967.4321155968171</v>
       </c>
       <c r="AC7" t="n">
-        <v>742.3134949387952</v>
+        <v>875.1017522837583</v>
       </c>
       <c r="AD7" t="n">
-        <v>599771.3458445296</v>
+        <v>707061.0453625274</v>
       </c>
       <c r="AE7" t="n">
-        <v>820633.6154288084</v>
+        <v>967432.1155968171</v>
       </c>
       <c r="AF7" t="n">
         <v>7.490062722551243e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.39166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>742313.4949387952</v>
+        <v>875101.7522837583</v>
       </c>
     </row>
     <row r="8">
@@ -11606,28 +11606,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>568.6759873572067</v>
+        <v>676.0330066829091</v>
       </c>
       <c r="AB8" t="n">
-        <v>778.0875741160561</v>
+        <v>924.9781842149063</v>
       </c>
       <c r="AC8" t="n">
-        <v>703.8279880951881</v>
+        <v>836.69956452847</v>
       </c>
       <c r="AD8" t="n">
-        <v>568675.9873572068</v>
+        <v>676033.0066829091</v>
       </c>
       <c r="AE8" t="n">
-        <v>778087.5741160561</v>
+        <v>924978.1842149063</v>
       </c>
       <c r="AF8" t="n">
         <v>7.640425433672952e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.97083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>703827.988095188</v>
+        <v>836699.5645284699</v>
       </c>
     </row>
     <row r="9">
@@ -11712,28 +11712,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>551.2914533592799</v>
+        <v>658.6484726849823</v>
       </c>
       <c r="AB9" t="n">
-        <v>754.3012877485813</v>
+        <v>901.1918978474315</v>
       </c>
       <c r="AC9" t="n">
-        <v>682.3118315143624</v>
+        <v>815.1834079476445</v>
       </c>
       <c r="AD9" t="n">
-        <v>551291.4533592799</v>
+        <v>658648.4726849822</v>
       </c>
       <c r="AE9" t="n">
-        <v>754301.2877485814</v>
+        <v>901191.8978474315</v>
       </c>
       <c r="AF9" t="n">
         <v>7.753485886536846e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>682311.8315143625</v>
+        <v>815183.4079476445</v>
       </c>
     </row>
     <row r="10">
@@ -11818,28 +11818,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>542.8336349798649</v>
+        <v>650.1906543055673</v>
       </c>
       <c r="AB10" t="n">
-        <v>742.728927509253</v>
+        <v>889.6195376081033</v>
       </c>
       <c r="AC10" t="n">
-        <v>671.8439210943661</v>
+        <v>804.715497527648</v>
       </c>
       <c r="AD10" t="n">
-        <v>542833.6349798649</v>
+        <v>650190.6543055673</v>
       </c>
       <c r="AE10" t="n">
-        <v>742728.927509253</v>
+        <v>889619.5376081034</v>
       </c>
       <c r="AF10" t="n">
         <v>7.802709485062623e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.53333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>671843.9210943661</v>
+        <v>804715.497527648</v>
       </c>
     </row>
     <row r="11">
@@ -11924,28 +11924,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>542.8506324254112</v>
+        <v>650.2076517511136</v>
       </c>
       <c r="AB11" t="n">
-        <v>742.7521841641239</v>
+        <v>889.642794262974</v>
       </c>
       <c r="AC11" t="n">
-        <v>671.864958166737</v>
+        <v>804.736534600019</v>
       </c>
       <c r="AD11" t="n">
-        <v>542850.6324254111</v>
+        <v>650207.6517511136</v>
       </c>
       <c r="AE11" t="n">
-        <v>742752.184164124</v>
+        <v>889642.7942629741</v>
       </c>
       <c r="AF11" t="n">
         <v>7.813861706603619e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.50416666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>671864.958166737</v>
+        <v>804736.534600019</v>
       </c>
     </row>
   </sheetData>
@@ -12221,28 +12221,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1021.757464794863</v>
+        <v>1183.491593384882</v>
       </c>
       <c r="AB2" t="n">
-        <v>1398.013640090321</v>
+        <v>1619.30541003336</v>
       </c>
       <c r="AC2" t="n">
-        <v>1264.589180404568</v>
+        <v>1464.761174409192</v>
       </c>
       <c r="AD2" t="n">
-        <v>1021757.464794863</v>
+        <v>1183491.593384882</v>
       </c>
       <c r="AE2" t="n">
-        <v>1398013.640090321</v>
+        <v>1619305.41003336</v>
       </c>
       <c r="AF2" t="n">
         <v>6.039129187380417e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.075</v>
       </c>
       <c r="AH2" t="n">
-        <v>1264589.180404568</v>
+        <v>1464761.174409192</v>
       </c>
     </row>
     <row r="3">
@@ -12327,28 +12327,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>604.6209032360367</v>
+        <v>728.3092182581541</v>
       </c>
       <c r="AB3" t="n">
-        <v>827.2689937992411</v>
+        <v>996.504803155843</v>
       </c>
       <c r="AC3" t="n">
-        <v>748.3156021103658</v>
+        <v>901.3997833459239</v>
       </c>
       <c r="AD3" t="n">
-        <v>604620.9032360368</v>
+        <v>728309.2182581541</v>
       </c>
       <c r="AE3" t="n">
-        <v>827268.9937992411</v>
+        <v>996504.8031558429</v>
       </c>
       <c r="AF3" t="n">
         <v>8.359474131964144e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.89583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>748315.6021103659</v>
+        <v>901399.7833459239</v>
       </c>
     </row>
     <row r="4">
@@ -12433,28 +12433,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>515.4664866228072</v>
+        <v>629.6350596557184</v>
       </c>
       <c r="AB4" t="n">
-        <v>705.2839877737521</v>
+        <v>861.4944661593464</v>
       </c>
       <c r="AC4" t="n">
-        <v>637.9726738529182</v>
+        <v>779.2746434241749</v>
       </c>
       <c r="AD4" t="n">
-        <v>515466.4866228072</v>
+        <v>629635.0596557184</v>
       </c>
       <c r="AE4" t="n">
-        <v>705283.9877737521</v>
+        <v>861494.4661593464</v>
       </c>
       <c r="AF4" t="n">
         <v>9.159609609755518e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.80833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>637972.6738529182</v>
+        <v>779274.6434241749</v>
       </c>
     </row>
     <row r="5">
@@ -12539,28 +12539,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>484.0184840807413</v>
+        <v>579.1827495838784</v>
       </c>
       <c r="AB5" t="n">
-        <v>662.2554433077422</v>
+        <v>792.4633897202236</v>
       </c>
       <c r="AC5" t="n">
-        <v>599.0507132798031</v>
+        <v>716.8317960346775</v>
       </c>
       <c r="AD5" t="n">
-        <v>484018.4840807413</v>
+        <v>579182.7495838783</v>
       </c>
       <c r="AE5" t="n">
-        <v>662255.4433077422</v>
+        <v>792463.3897202236</v>
       </c>
       <c r="AF5" t="n">
         <v>9.510537812118179e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.00416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>599050.7132798031</v>
+        <v>716831.7960346775</v>
       </c>
     </row>
     <row r="6">
@@ -12645,28 +12645,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>474.4946473361819</v>
+        <v>579.177643798668</v>
       </c>
       <c r="AB6" t="n">
-        <v>649.2245097118125</v>
+        <v>792.4564037596472</v>
       </c>
       <c r="AC6" t="n">
-        <v>587.2634336972386</v>
+        <v>716.8254768043738</v>
       </c>
       <c r="AD6" t="n">
-        <v>474494.6473361819</v>
+        <v>579177.6437986679</v>
       </c>
       <c r="AE6" t="n">
-        <v>649224.5097118125</v>
+        <v>792456.4037596472</v>
       </c>
       <c r="AF6" t="n">
         <v>9.52300247504363e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.975</v>
       </c>
       <c r="AH6" t="n">
-        <v>587263.4336972386</v>
+        <v>716825.4768043738</v>
       </c>
     </row>
   </sheetData>
@@ -12942,28 +12942,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>735.2247112453944</v>
+        <v>876.2045463563157</v>
       </c>
       <c r="AB2" t="n">
-        <v>1005.966885751004</v>
+        <v>1198.861715741135</v>
       </c>
       <c r="AC2" t="n">
-        <v>909.9588180583189</v>
+        <v>1084.444036203786</v>
       </c>
       <c r="AD2" t="n">
-        <v>735224.7112453943</v>
+        <v>876204.5463563157</v>
       </c>
       <c r="AE2" t="n">
-        <v>1005966.885751004</v>
+        <v>1198861.715741134</v>
       </c>
       <c r="AF2" t="n">
         <v>7.950065934197755e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.57083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>909958.8180583189</v>
+        <v>1084444.036203786</v>
       </c>
     </row>
     <row r="3">
@@ -13048,28 +13048,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>493.3894571683776</v>
+        <v>596.7324044157881</v>
       </c>
       <c r="AB3" t="n">
-        <v>675.0772221044012</v>
+        <v>816.4756016973707</v>
       </c>
       <c r="AC3" t="n">
-        <v>610.6487995035884</v>
+        <v>738.5523162020771</v>
       </c>
       <c r="AD3" t="n">
-        <v>493389.4571683776</v>
+        <v>596732.4044157881</v>
       </c>
       <c r="AE3" t="n">
-        <v>675077.2221044012</v>
+        <v>816475.6016973708</v>
       </c>
       <c r="AF3" t="n">
         <v>1.017034970751012e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.33333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>610648.7995035884</v>
+        <v>738552.3162020771</v>
       </c>
     </row>
     <row r="4">
@@ -13154,28 +13154,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>455.8311955583475</v>
+        <v>559.1399773869773</v>
       </c>
       <c r="AB4" t="n">
-        <v>623.6883516159977</v>
+        <v>765.0399845757196</v>
       </c>
       <c r="AC4" t="n">
-        <v>564.1644106898655</v>
+        <v>692.0256421881742</v>
       </c>
       <c r="AD4" t="n">
-        <v>455831.1955583475</v>
+        <v>559139.9773869773</v>
       </c>
       <c r="AE4" t="n">
-        <v>623688.3516159977</v>
+        <v>765039.9845757196</v>
       </c>
       <c r="AF4" t="n">
         <v>1.058682326577445e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.45416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>564164.4106898655</v>
+        <v>692025.6421881742</v>
       </c>
     </row>
     <row r="5">
@@ -13260,28 +13260,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>457.6186663951847</v>
+        <v>560.9274482238145</v>
       </c>
       <c r="AB5" t="n">
-        <v>626.1340480726063</v>
+        <v>767.485681032328</v>
       </c>
       <c r="AC5" t="n">
-        <v>566.3766933092118</v>
+        <v>694.2379248075205</v>
       </c>
       <c r="AD5" t="n">
-        <v>457618.6663951847</v>
+        <v>560927.4482238145</v>
       </c>
       <c r="AE5" t="n">
-        <v>626134.0480726063</v>
+        <v>767485.6810323279</v>
       </c>
       <c r="AF5" t="n">
         <v>1.058573302085753e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.45833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>566376.6933092118</v>
+        <v>694237.9248075205</v>
       </c>
     </row>
   </sheetData>
@@ -23962,28 +23962,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>572.3273666407841</v>
+        <v>702.5425796503547</v>
       </c>
       <c r="AB2" t="n">
-        <v>783.0835523393315</v>
+        <v>961.2497514687841</v>
       </c>
       <c r="AC2" t="n">
-        <v>708.3471571687335</v>
+        <v>869.5094243111022</v>
       </c>
       <c r="AD2" t="n">
-        <v>572327.3666407841</v>
+        <v>702542.5796503547</v>
       </c>
       <c r="AE2" t="n">
-        <v>783083.5523393315</v>
+        <v>961249.7514687841</v>
       </c>
       <c r="AF2" t="n">
         <v>9.885738204318333e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.80416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>708347.1571687334</v>
+        <v>869509.4243111021</v>
       </c>
     </row>
     <row r="3">
@@ -24068,28 +24068,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>446.1915551852498</v>
+        <v>548.4898769717207</v>
       </c>
       <c r="AB3" t="n">
-        <v>610.4989703866064</v>
+        <v>750.4680473382955</v>
       </c>
       <c r="AC3" t="n">
-        <v>552.2338054935942</v>
+        <v>678.8444301888477</v>
       </c>
       <c r="AD3" t="n">
-        <v>446191.5551852498</v>
+        <v>548489.8769717207</v>
       </c>
       <c r="AE3" t="n">
-        <v>610498.9703866064</v>
+        <v>750468.0473382955</v>
       </c>
       <c r="AF3" t="n">
         <v>1.154968646040808e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.08333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>552233.8054935943</v>
+        <v>678844.4301888477</v>
       </c>
     </row>
     <row r="4">
@@ -24174,28 +24174,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>448.203373795862</v>
+        <v>550.5016955823329</v>
       </c>
       <c r="AB4" t="n">
-        <v>613.251629364819</v>
+        <v>753.2207063165081</v>
       </c>
       <c r="AC4" t="n">
-        <v>554.7237545623076</v>
+        <v>681.334379257561</v>
       </c>
       <c r="AD4" t="n">
-        <v>448203.373795862</v>
+        <v>550501.6955823329</v>
       </c>
       <c r="AE4" t="n">
-        <v>613251.629364819</v>
+        <v>753220.7063165081</v>
       </c>
       <c r="AF4" t="n">
         <v>1.154723767710258e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.09166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>554723.7545623076</v>
+        <v>681334.3792575609</v>
       </c>
     </row>
   </sheetData>
@@ -24471,28 +24471,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>434.8043162681847</v>
+        <v>553.3004517278601</v>
       </c>
       <c r="AB2" t="n">
-        <v>594.9184477307524</v>
+        <v>757.0500879472256</v>
       </c>
       <c r="AC2" t="n">
-        <v>538.1402660526142</v>
+        <v>684.7982900800134</v>
       </c>
       <c r="AD2" t="n">
-        <v>434804.3162681847</v>
+        <v>553300.4517278601</v>
       </c>
       <c r="AE2" t="n">
-        <v>594918.4477307524</v>
+        <v>757050.0879472257</v>
       </c>
       <c r="AF2" t="n">
         <v>1.36399579448167e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.73333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>538140.2660526142</v>
+        <v>684798.2900800135</v>
       </c>
     </row>
   </sheetData>
@@ -24768,28 +24768,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1387.126008726027</v>
+        <v>1579.399061925105</v>
       </c>
       <c r="AB2" t="n">
-        <v>1897.927000819481</v>
+        <v>2161.003474694902</v>
       </c>
       <c r="AC2" t="n">
-        <v>1716.791511618545</v>
+        <v>1954.760336057446</v>
       </c>
       <c r="AD2" t="n">
-        <v>1387126.008726027</v>
+        <v>1579399.061925105</v>
       </c>
       <c r="AE2" t="n">
-        <v>1897927.000819481</v>
+        <v>2161003.474694902</v>
       </c>
       <c r="AF2" t="n">
         <v>4.716825498641435e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.425</v>
       </c>
       <c r="AH2" t="n">
-        <v>1716791.511618545</v>
+        <v>1954760.336057446</v>
       </c>
     </row>
     <row r="3">
@@ -24874,28 +24874,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>728.5074995312551</v>
+        <v>853.5731570300786</v>
       </c>
       <c r="AB3" t="n">
-        <v>996.7761003412522</v>
+        <v>1167.896450438545</v>
       </c>
       <c r="AC3" t="n">
-        <v>901.6451883087258</v>
+        <v>1056.434052361653</v>
       </c>
       <c r="AD3" t="n">
-        <v>728507.4995312551</v>
+        <v>853573.1570300786</v>
       </c>
       <c r="AE3" t="n">
-        <v>996776.1003412523</v>
+        <v>1167896.450438545</v>
       </c>
       <c r="AF3" t="n">
         <v>7.097856739840551e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.53333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>901645.1883087258</v>
+        <v>1056434.052361653</v>
       </c>
     </row>
     <row r="4">
@@ -24980,28 +24980,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>603.511251721279</v>
+        <v>718.9223086091044</v>
       </c>
       <c r="AB4" t="n">
-        <v>825.7507196423797</v>
+        <v>983.6612192527869</v>
       </c>
       <c r="AC4" t="n">
-        <v>746.9422299081242</v>
+        <v>889.7819730644924</v>
       </c>
       <c r="AD4" t="n">
-        <v>603511.251721279</v>
+        <v>718922.3086091045</v>
       </c>
       <c r="AE4" t="n">
-        <v>825750.7196423798</v>
+        <v>983661.2192527868</v>
       </c>
       <c r="AF4" t="n">
         <v>7.952574750245423e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.79166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>746942.2299081242</v>
+        <v>889781.9730644923</v>
       </c>
     </row>
     <row r="5">
@@ -25086,28 +25086,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>548.8537372836154</v>
+        <v>654.6785243980044</v>
       </c>
       <c r="AB5" t="n">
-        <v>750.9658970694138</v>
+        <v>895.7600394594308</v>
       </c>
       <c r="AC5" t="n">
-        <v>679.2947658403644</v>
+        <v>810.2699585005334</v>
       </c>
       <c r="AD5" t="n">
-        <v>548853.7372836154</v>
+        <v>654678.5243980044</v>
       </c>
       <c r="AE5" t="n">
-        <v>750965.8970694138</v>
+        <v>895760.0394594308</v>
       </c>
       <c r="AF5" t="n">
         <v>8.394940254867178e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.5875</v>
       </c>
       <c r="AH5" t="n">
-        <v>679294.7658403645</v>
+        <v>810269.9585005335</v>
       </c>
     </row>
     <row r="6">
@@ -25192,28 +25192,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>508.3998716687045</v>
+        <v>614.1904933643129</v>
       </c>
       <c r="AB6" t="n">
-        <v>695.6151334364996</v>
+        <v>840.3625291932689</v>
       </c>
       <c r="AC6" t="n">
-        <v>629.2266014032908</v>
+        <v>760.1595088632801</v>
       </c>
       <c r="AD6" t="n">
-        <v>508399.8716687044</v>
+        <v>614190.4933643129</v>
       </c>
       <c r="AE6" t="n">
-        <v>695615.1334364996</v>
+        <v>840362.5291932689</v>
       </c>
       <c r="AF6" t="n">
         <v>8.672016780377563e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AH6" t="n">
-        <v>629226.6014032909</v>
+        <v>760159.5088632801</v>
       </c>
     </row>
     <row r="7">
@@ -25298,28 +25298,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>499.1107188633441</v>
+        <v>604.9013405589524</v>
       </c>
       <c r="AB7" t="n">
-        <v>682.9053047597066</v>
+        <v>827.6527005164759</v>
       </c>
       <c r="AC7" t="n">
-        <v>617.7297809370543</v>
+        <v>748.6626883970437</v>
       </c>
       <c r="AD7" t="n">
-        <v>499110.7188633441</v>
+        <v>604901.3405589524</v>
       </c>
       <c r="AE7" t="n">
-        <v>682905.3047597066</v>
+        <v>827652.7005164758</v>
       </c>
       <c r="AF7" t="n">
         <v>8.745526878982358e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.725</v>
       </c>
       <c r="AH7" t="n">
-        <v>617729.7809370543</v>
+        <v>748662.6883970436</v>
       </c>
     </row>
     <row r="8">
@@ -25404,28 +25404,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>499.8600227213849</v>
+        <v>605.6506444169933</v>
       </c>
       <c r="AB8" t="n">
-        <v>683.9305353552313</v>
+        <v>828.6779311120005</v>
       </c>
       <c r="AC8" t="n">
-        <v>618.6571649634624</v>
+        <v>749.5900724234515</v>
       </c>
       <c r="AD8" t="n">
-        <v>499860.0227213849</v>
+        <v>605650.6444169933</v>
       </c>
       <c r="AE8" t="n">
-        <v>683930.5353552313</v>
+        <v>828677.9311120005</v>
       </c>
       <c r="AF8" t="n">
         <v>8.759880921905187e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.69166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>618657.1649634624</v>
+        <v>749590.0724234515</v>
       </c>
     </row>
   </sheetData>
@@ -25701,28 +25701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2129.961406714571</v>
+        <v>2373.30129570101</v>
       </c>
       <c r="AB2" t="n">
-        <v>2914.307163932263</v>
+        <v>3247.255535441931</v>
       </c>
       <c r="AC2" t="n">
-        <v>2636.169778462362</v>
+        <v>2937.342024690999</v>
       </c>
       <c r="AD2" t="n">
-        <v>2129961.406714571</v>
+        <v>2373301.29570101</v>
       </c>
       <c r="AE2" t="n">
-        <v>2914307.163932263</v>
+        <v>3247255.535441931</v>
       </c>
       <c r="AF2" t="n">
         <v>3.417468337303188e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.92083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2636169.778462362</v>
+        <v>2937342.024690999</v>
       </c>
     </row>
     <row r="3">
@@ -25807,28 +25807,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>900.4544548733991</v>
+        <v>1046.431055930236</v>
       </c>
       <c r="AB3" t="n">
-        <v>1232.041510404667</v>
+        <v>1431.773136003756</v>
       </c>
       <c r="AC3" t="n">
-        <v>1114.457197832765</v>
+        <v>1295.126717409774</v>
       </c>
       <c r="AD3" t="n">
-        <v>900454.4548733991</v>
+        <v>1046431.055930236</v>
       </c>
       <c r="AE3" t="n">
-        <v>1232041.510404667</v>
+        <v>1431773.136003755</v>
       </c>
       <c r="AF3" t="n">
         <v>5.876316171480156e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.86666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1114457.197832765</v>
+        <v>1295126.717409774</v>
       </c>
     </row>
     <row r="4">
@@ -25913,28 +25913,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>730.0169026996817</v>
+        <v>846.7855284074964</v>
       </c>
       <c r="AB4" t="n">
-        <v>998.8413323464619</v>
+        <v>1158.609317508088</v>
       </c>
       <c r="AC4" t="n">
-        <v>903.5133174699293</v>
+        <v>1048.033270363505</v>
       </c>
       <c r="AD4" t="n">
-        <v>730016.9026996817</v>
+        <v>846785.5284074964</v>
       </c>
       <c r="AE4" t="n">
-        <v>998841.3323464618</v>
+        <v>1158609.317508087</v>
       </c>
       <c r="AF4" t="n">
         <v>6.764189774006654e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.20833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>903513.3174699293</v>
+        <v>1048033.270363505</v>
       </c>
     </row>
     <row r="5">
@@ -26019,28 +26019,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>650.5702483734972</v>
+        <v>767.3720284702354</v>
       </c>
       <c r="AB5" t="n">
-        <v>890.1389149583534</v>
+        <v>1049.952263417573</v>
       </c>
       <c r="AC5" t="n">
-        <v>805.1853062325409</v>
+        <v>949.7462930142559</v>
       </c>
       <c r="AD5" t="n">
-        <v>650570.2483734972</v>
+        <v>767372.0284702354</v>
       </c>
       <c r="AE5" t="n">
-        <v>890138.9149583534</v>
+        <v>1049952.263417573</v>
       </c>
       <c r="AF5" t="n">
         <v>7.237800969688119e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.625</v>
       </c>
       <c r="AH5" t="n">
-        <v>805185.306232541</v>
+        <v>949746.2930142559</v>
       </c>
     </row>
     <row r="6">
@@ -26125,28 +26125,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>605.6474846264795</v>
+        <v>712.7471013490388</v>
       </c>
       <c r="AB6" t="n">
-        <v>828.6736077472195</v>
+        <v>975.2120282486478</v>
       </c>
       <c r="AC6" t="n">
-        <v>749.5861616745374</v>
+        <v>882.1391609912743</v>
       </c>
       <c r="AD6" t="n">
-        <v>605647.4846264794</v>
+        <v>712747.1013490388</v>
       </c>
       <c r="AE6" t="n">
-        <v>828673.6077472195</v>
+        <v>975212.0282486478</v>
       </c>
       <c r="AF6" t="n">
         <v>7.521574648760334e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.77083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>749586.1616745373</v>
+        <v>882139.1609912743</v>
       </c>
     </row>
     <row r="7">
@@ -26231,28 +26231,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>579.4037943908265</v>
+        <v>686.4019258869006</v>
       </c>
       <c r="AB7" t="n">
-        <v>792.7658329768988</v>
+        <v>939.1653969142379</v>
       </c>
       <c r="AC7" t="n">
-        <v>717.1053745314175</v>
+        <v>849.5327695596553</v>
       </c>
       <c r="AD7" t="n">
-        <v>579403.7943908265</v>
+        <v>686401.9258869006</v>
       </c>
       <c r="AE7" t="n">
-        <v>792765.8329768988</v>
+        <v>939165.3969142379</v>
       </c>
       <c r="AF7" t="n">
         <v>7.72791977550952e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.19166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>717105.3745314175</v>
+        <v>849532.7695596553</v>
       </c>
     </row>
     <row r="8">
@@ -26337,28 +26337,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>548.8933854489048</v>
+        <v>655.9588367526832</v>
       </c>
       <c r="AB8" t="n">
-        <v>751.0201454383165</v>
+        <v>897.5118193064972</v>
       </c>
       <c r="AC8" t="n">
-        <v>679.3438368210772</v>
+        <v>811.8545509376341</v>
       </c>
       <c r="AD8" t="n">
-        <v>548893.3854489048</v>
+        <v>655958.8367526832</v>
       </c>
       <c r="AE8" t="n">
-        <v>751020.1454383165</v>
+        <v>897511.8193064971</v>
       </c>
       <c r="AF8" t="n">
         <v>7.869020538372297e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.8125</v>
       </c>
       <c r="AH8" t="n">
-        <v>679343.8368210772</v>
+        <v>811854.5509376342</v>
       </c>
     </row>
     <row r="9">
@@ -26443,28 +26443,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>536.0609549038668</v>
+        <v>643.1264062076451</v>
       </c>
       <c r="AB9" t="n">
-        <v>733.462247839715</v>
+        <v>879.9539217078956</v>
       </c>
       <c r="AC9" t="n">
-        <v>663.4616403266222</v>
+        <v>795.9723544431791</v>
       </c>
       <c r="AD9" t="n">
-        <v>536060.9549038667</v>
+        <v>643126.4062076451</v>
       </c>
       <c r="AE9" t="n">
-        <v>733462.247839715</v>
+        <v>879953.9217078956</v>
       </c>
       <c r="AF9" t="n">
         <v>7.957847202458613e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.57916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>663461.6403266222</v>
+        <v>795972.3544431791</v>
       </c>
     </row>
     <row r="10">
@@ -26549,28 +26549,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>534.1473699182517</v>
+        <v>641.2128212220301</v>
       </c>
       <c r="AB10" t="n">
-        <v>730.8439964409852</v>
+        <v>877.3356703091656</v>
       </c>
       <c r="AC10" t="n">
-        <v>661.093271166648</v>
+        <v>793.603985283205</v>
       </c>
       <c r="AD10" t="n">
-        <v>534147.3699182516</v>
+        <v>641212.8212220301</v>
       </c>
       <c r="AE10" t="n">
-        <v>730843.9964409851</v>
+        <v>877335.6703091656</v>
       </c>
       <c r="AF10" t="n">
         <v>7.963742777508589e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.5625</v>
       </c>
       <c r="AH10" t="n">
-        <v>661093.271166648</v>
+        <v>793603.9852832051</v>
       </c>
     </row>
   </sheetData>
@@ -26846,28 +26846,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>454.8231332343791</v>
+        <v>581.2385042426994</v>
       </c>
       <c r="AB2" t="n">
-        <v>622.3090762717733</v>
+        <v>795.2761639379171</v>
       </c>
       <c r="AC2" t="n">
-        <v>562.9167714486686</v>
+        <v>719.3761230287879</v>
       </c>
       <c r="AD2" t="n">
-        <v>454823.1332343791</v>
+        <v>581238.5042426994</v>
       </c>
       <c r="AE2" t="n">
-        <v>622309.0762717733</v>
+        <v>795276.1639379171</v>
       </c>
       <c r="AF2" t="n">
         <v>1.435672632911592e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.675</v>
       </c>
       <c r="AH2" t="n">
-        <v>562916.7714486686</v>
+        <v>719376.1230287879</v>
       </c>
     </row>
   </sheetData>
@@ -27143,28 +27143,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>817.0196128338561</v>
+        <v>968.0410077645269</v>
       </c>
       <c r="AB2" t="n">
-        <v>1117.882278640717</v>
+        <v>1324.516413778583</v>
       </c>
       <c r="AC2" t="n">
-        <v>1011.193162924879</v>
+        <v>1198.106426218017</v>
       </c>
       <c r="AD2" t="n">
-        <v>817019.612833856</v>
+        <v>968041.0077645269</v>
       </c>
       <c r="AE2" t="n">
-        <v>1117882.278640717</v>
+        <v>1324516.413778583</v>
       </c>
       <c r="AF2" t="n">
         <v>7.225107922119568e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.97916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1011193.162924879</v>
+        <v>1198106.426218017</v>
       </c>
     </row>
     <row r="3">
@@ -27249,28 +27249,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>528.2556374122806</v>
+        <v>641.5387663196742</v>
       </c>
       <c r="AB3" t="n">
-        <v>722.782668101422</v>
+        <v>877.7816427714453</v>
       </c>
       <c r="AC3" t="n">
-        <v>653.8013046896674</v>
+        <v>794.007394759611</v>
       </c>
       <c r="AD3" t="n">
-        <v>528255.6374122807</v>
+        <v>641538.7663196742</v>
       </c>
       <c r="AE3" t="n">
-        <v>722782.668101422</v>
+        <v>877781.6427714452</v>
       </c>
       <c r="AF3" t="n">
         <v>9.467131842408921e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.87916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>653801.3046896674</v>
+        <v>794007.394759611</v>
       </c>
     </row>
     <row r="4">
@@ -27355,28 +27355,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>466.8329688159333</v>
+        <v>570.6056700551079</v>
       </c>
       <c r="AB4" t="n">
-        <v>638.7414631510075</v>
+        <v>780.7278511149168</v>
       </c>
       <c r="AC4" t="n">
-        <v>577.7808743871485</v>
+        <v>706.2162807629293</v>
       </c>
       <c r="AD4" t="n">
-        <v>466832.9688159333</v>
+        <v>570605.6700551079</v>
       </c>
       <c r="AE4" t="n">
-        <v>638741.4631510074</v>
+        <v>780727.8511149168</v>
       </c>
       <c r="AF4" t="n">
         <v>1.017513939618451e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.2875</v>
       </c>
       <c r="AH4" t="n">
-        <v>577780.8743871485</v>
+        <v>706216.2807629292</v>
       </c>
     </row>
     <row r="5">
@@ -27461,28 +27461,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>466.230749120539</v>
+        <v>570.0034503597137</v>
       </c>
       <c r="AB5" t="n">
-        <v>637.9174795957114</v>
+        <v>779.9038675596204</v>
       </c>
       <c r="AC5" t="n">
-        <v>577.0355306659017</v>
+        <v>705.4709370416824</v>
       </c>
       <c r="AD5" t="n">
-        <v>466230.7491205391</v>
+        <v>570003.4503597138</v>
       </c>
       <c r="AE5" t="n">
-        <v>637917.4795957113</v>
+        <v>779903.8675596204</v>
       </c>
       <c r="AF5" t="n">
         <v>1.018865495888507e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.25833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>577035.5306659016</v>
+        <v>705470.9370416824</v>
       </c>
     </row>
   </sheetData>
@@ -27758,28 +27758,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1127.745634119391</v>
+        <v>1299.700531784809</v>
       </c>
       <c r="AB2" t="n">
-        <v>1543.031329228163</v>
+        <v>1778.307606328673</v>
       </c>
       <c r="AC2" t="n">
-        <v>1395.766584824699</v>
+        <v>1608.588424251065</v>
       </c>
       <c r="AD2" t="n">
-        <v>1127745.634119391</v>
+        <v>1299700.531784809</v>
       </c>
       <c r="AE2" t="n">
-        <v>1543031.329228163</v>
+        <v>1778307.606328673</v>
       </c>
       <c r="AF2" t="n">
         <v>5.546178070214316e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.775</v>
       </c>
       <c r="AH2" t="n">
-        <v>1395766.584824699</v>
+        <v>1608588.424251065</v>
       </c>
     </row>
     <row r="3">
@@ -27864,28 +27864,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>648.8480357772659</v>
+        <v>772.9267084705883</v>
       </c>
       <c r="AB3" t="n">
-        <v>887.7825077055323</v>
+        <v>1057.552421649242</v>
       </c>
       <c r="AC3" t="n">
-        <v>803.0537911806907</v>
+        <v>956.6211028111837</v>
       </c>
       <c r="AD3" t="n">
-        <v>648848.0357772659</v>
+        <v>772926.7084705883</v>
       </c>
       <c r="AE3" t="n">
-        <v>887782.5077055324</v>
+        <v>1057552.421649242</v>
       </c>
       <c r="AF3" t="n">
         <v>7.890644096389873e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.44166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>803053.7911806908</v>
+        <v>956621.1028111838</v>
       </c>
     </row>
     <row r="4">
@@ -27970,28 +27970,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>552.0162592388901</v>
+        <v>657.05336687153</v>
       </c>
       <c r="AB4" t="n">
-        <v>755.2929991292427</v>
+        <v>899.0094037023641</v>
       </c>
       <c r="AC4" t="n">
-        <v>683.2088953527291</v>
+        <v>813.2092079806324</v>
       </c>
       <c r="AD4" t="n">
-        <v>552016.2592388901</v>
+        <v>657053.36687153</v>
       </c>
       <c r="AE4" t="n">
-        <v>755292.9991292427</v>
+        <v>899009.4037023641</v>
       </c>
       <c r="AF4" t="n">
         <v>8.711322924506212e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.1375</v>
       </c>
       <c r="AH4" t="n">
-        <v>683208.8953527291</v>
+        <v>813209.2079806324</v>
       </c>
     </row>
     <row r="5">
@@ -28076,28 +28076,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>502.6184715532799</v>
+        <v>607.6214137671387</v>
       </c>
       <c r="AB5" t="n">
-        <v>687.7047667412037</v>
+        <v>831.374424681077</v>
       </c>
       <c r="AC5" t="n">
-        <v>622.0711890031246</v>
+        <v>752.029216430848</v>
       </c>
       <c r="AD5" t="n">
-        <v>502618.4715532799</v>
+        <v>607621.4137671387</v>
       </c>
       <c r="AE5" t="n">
-        <v>687704.7667412037</v>
+        <v>831374.424681077</v>
       </c>
       <c r="AF5" t="n">
         <v>9.132077044504945e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.12083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>622071.1890031246</v>
+        <v>752029.216430848</v>
       </c>
     </row>
     <row r="6">
@@ -28182,28 +28182,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>481.9664835312136</v>
+        <v>587.0367455527769</v>
       </c>
       <c r="AB6" t="n">
-        <v>659.4478056280033</v>
+        <v>803.2095734987182</v>
       </c>
       <c r="AC6" t="n">
-        <v>596.5110325996741</v>
+        <v>726.5523791157166</v>
       </c>
       <c r="AD6" t="n">
-        <v>481966.4835312135</v>
+        <v>587036.7455527768</v>
       </c>
       <c r="AE6" t="n">
-        <v>659447.8056280033</v>
+        <v>803209.5734987182</v>
       </c>
       <c r="AF6" t="n">
         <v>9.244555868663023e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.8625</v>
       </c>
       <c r="AH6" t="n">
-        <v>596511.0325996741</v>
+        <v>726552.3791157166</v>
       </c>
     </row>
     <row r="7">
@@ -28288,28 +28288,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>483.5984256337265</v>
+        <v>588.6686876552899</v>
       </c>
       <c r="AB7" t="n">
-        <v>661.6807008088658</v>
+        <v>805.4424686795809</v>
       </c>
       <c r="AC7" t="n">
-        <v>598.5308233983632</v>
+        <v>728.5721699144055</v>
       </c>
       <c r="AD7" t="n">
-        <v>483598.4256337265</v>
+        <v>588668.6876552899</v>
       </c>
       <c r="AE7" t="n">
-        <v>661680.7008088658</v>
+        <v>805442.4686795808</v>
       </c>
       <c r="AF7" t="n">
         <v>9.24316724120428e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.86666666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>598530.8233983632</v>
+        <v>728572.1699144056</v>
       </c>
     </row>
   </sheetData>
